--- a/docentes/Rodriguez Roman Marisol - Estadisticos 20211.xlsx
+++ b/docentes/Rodriguez Roman Marisol - Estadisticos 20211.xlsx
@@ -486,10 +486,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>20</v>
       </c>
       <c r="G2">
-        <v>83.33</v>
+        <v>80</v>
       </c>
       <c r="H2">
         <v>6.8</v>
@@ -606,10 +606,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -717,10 +717,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>20</v>
       </c>
       <c r="G2">
-        <v>83.33</v>
+        <v>80</v>
       </c>
       <c r="H2">
         <v>6.8</v>
